--- a/inventory_log.xlsx
+++ b/inventory_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,31 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-01-28 16:40:15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Gloves</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Usage Logged</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inventory_log.xlsx
+++ b/inventory_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-27 22:30:09</t>
+          <t>2025-01-28 19:09:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -488,23 +488,73 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-28 16:40:15</t>
+          <t>2025-01-28 19:16:07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>ron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Bucket</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Usage Logged</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-01-28 19:18:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ron</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Trash Bags</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Usage Logged</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-01-28 19:38:59</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>employee1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Gloves</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Usage Logged</t>
         </is>
